--- a/Filtered_By_Region/Region IV-A/Region IV-A_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-A/Region IV-A_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:AA148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -645,7 +651,6 @@
           <t>Feb. 12, 2025</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>BEFF-ANT-2024-02</t>
@@ -681,7 +686,6 @@
           <t>HAWKSTOW CONST. AND DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -759,7 +763,6 @@
           <t>Feb. 12, 2025</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>BEFF-ANT-2024-02</t>
@@ -795,7 +798,6 @@
           <t>HAWKSTOW CONST. AND DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -873,7 +875,6 @@
           <t>March 5, 2025</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>BEFF-ANT-2024-02</t>
@@ -909,7 +910,6 @@
           <t>HAWKSTOW CONST. AND DEVELOPMENT</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1470,8 +1470,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -1584,8 +1582,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -1698,8 +1694,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -1812,8 +1806,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -1926,8 +1918,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2040,8 +2030,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2154,8 +2142,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2268,8 +2254,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2382,8 +2366,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2496,8 +2478,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2610,8 +2590,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -2724,8 +2702,6 @@
           <t>May 14, 2025</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>RIVACaviteBACInfra 006-2024</t>
@@ -3001,7 +2977,6 @@
           <t>GS Motar Builders Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3037,7 +3012,6 @@
           <t>Lone</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>-</t>
@@ -3117,7 +3091,6 @@
           <t>GS Motar Builders Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3357,7 +3330,6 @@
           <t>GS Motar Builders Construction &amp; Trading</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3567,7 +3539,7 @@
           <t>R4a-2024-016</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45562</v>
       </c>
       <c r="U27" t="inlineStr">
@@ -3581,7 +3553,7 @@
           <t>Oct. 21, 2024</t>
         </is>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -3686,7 +3658,7 @@
           <t>R4a-2024-016</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45562</v>
       </c>
       <c r="U28" t="inlineStr">
@@ -3700,7 +3672,7 @@
           <t>Oct. 21, 2025</t>
         </is>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="X28" t="inlineStr">
@@ -3805,7 +3777,7 @@
           <t>R4a-2024-016</t>
         </is>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>45562</v>
       </c>
       <c r="U29" t="inlineStr">
@@ -3819,7 +3791,7 @@
           <t>Oct. 21, 2026</t>
         </is>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -3924,7 +3896,7 @@
           <t>R4a-2024-016</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>45562</v>
       </c>
       <c r="U30" t="inlineStr">
@@ -3938,7 +3910,7 @@
           <t>Oct. 21, 2027</t>
         </is>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -4043,7 +4015,7 @@
           <t>R4a-2024-016</t>
         </is>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45562</v>
       </c>
       <c r="U31" t="inlineStr">
@@ -4057,7 +4029,7 @@
           <t>Oct. 21, 2028</t>
         </is>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -4162,7 +4134,7 @@
           <t>R4a-2024-016</t>
         </is>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>45562</v>
       </c>
       <c r="U32" t="inlineStr">
@@ -4176,7 +4148,7 @@
           <t>Oct. 21, 2029</t>
         </is>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45604</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -4271,7 +4243,6 @@
           <t>November 18, 2024</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -4307,7 +4278,6 @@
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4385,7 +4355,6 @@
           <t>July 30, 2024</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -4421,7 +4390,6 @@
           <t>Botey Construction</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4499,7 +4467,6 @@
           <t>September 13, 2024</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -4535,7 +4502,6 @@
           <t>M.G. Villamin Construction</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4613,7 +4579,6 @@
           <t>September 11, 2024</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -4649,7 +4614,6 @@
           <t>Neniko Construction &amp; Supplies</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4722,7 +4686,6 @@
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
           <t>INFRA-2024-001</t>
@@ -4840,7 +4803,6 @@
           <t>May 6, 2025</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
           <t>INFRA-2024-001</t>
@@ -4963,7 +4925,6 @@
           <t>November 18, 2024</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -4999,7 +4960,6 @@
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5077,7 +5037,6 @@
           <t>July 30, 2024</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -5113,7 +5072,6 @@
           <t>Botey Construction</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5191,7 +5149,6 @@
           <t>September 13, 2024</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -5227,7 +5184,6 @@
           <t>M.G. Villamin Construction</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5305,7 +5261,6 @@
           <t>September 11, 2024</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
           <t>2023-06-INFRAEPA</t>
@@ -5341,7 +5296,6 @@
           <t>Neniko Construction &amp; Supplies</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5459,7 +5413,6 @@
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5577,7 +5530,6 @@
           <t>N.T. Sotelo Construction and Supply Corporation</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5695,7 +5647,6 @@
           <t>D&amp;D Construction</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5853,7 +5804,6 @@
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>-</t>
@@ -6112,7 +6062,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6157,7 +6106,6 @@
           <t>GS MOTAR BUILDERS CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6210,7 +6158,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6225,8 +6172,6 @@
       <c r="Q50" t="n">
         <v>44892</v>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
       <c r="T50" t="n">
         <v>44732</v>
       </c>
@@ -6242,8 +6187,6 @@
       <c r="X50" t="n">
         <v>44841</v>
       </c>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6296,7 +6239,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6311,8 +6253,6 @@
       <c r="Q51" t="n">
         <v>44892</v>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
       <c r="T51" t="n">
         <v>44732</v>
       </c>
@@ -6328,8 +6268,6 @@
       <c r="X51" t="n">
         <v>44841</v>
       </c>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6382,7 +6320,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6427,7 +6364,6 @@
           <t>RRE ERECTORS AND TRADING SPECIALIST</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6480,7 +6416,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6495,8 +6430,6 @@
       <c r="Q53" t="n">
         <v>44890</v>
       </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
         <v>44732</v>
       </c>
@@ -6512,8 +6445,6 @@
       <c r="X53" t="n">
         <v>44841</v>
       </c>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6566,7 +6497,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6581,8 +6511,6 @@
       <c r="Q54" t="n">
         <v>44890</v>
       </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
       <c r="T54" t="n">
         <v>44732</v>
       </c>
@@ -6598,8 +6526,6 @@
       <c r="X54" t="n">
         <v>44841</v>
       </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6652,7 +6578,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6697,7 +6622,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6750,7 +6674,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6765,8 +6688,6 @@
       <c r="Q56" t="n">
         <v>44890</v>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
       <c r="T56" t="n">
         <v>44732</v>
       </c>
@@ -6782,8 +6703,6 @@
       <c r="X56" t="n">
         <v>44841</v>
       </c>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6836,7 +6755,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6851,8 +6769,6 @@
       <c r="Q57" t="n">
         <v>44890</v>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
       <c r="T57" t="n">
         <v>44732</v>
       </c>
@@ -6868,8 +6784,6 @@
       <c r="X57" t="n">
         <v>44841</v>
       </c>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6922,7 +6836,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6967,7 +6880,6 @@
           <t>GS MOTAR BUILDERS CONSTRUCTION AND TRADING</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7020,7 +6932,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7065,7 +6976,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7118,7 +7028,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7133,8 +7042,6 @@
       <c r="Q60" t="n">
         <v>44890</v>
       </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
       <c r="T60" t="n">
         <v>44732</v>
       </c>
@@ -7150,8 +7057,6 @@
       <c r="X60" t="n">
         <v>44841</v>
       </c>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7204,7 +7109,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7213,17 +7117,6 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7276,7 +7169,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7285,17 +7177,6 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7348,7 +7229,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7357,17 +7237,6 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7420,7 +7289,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7429,17 +7297,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7492,7 +7349,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7501,21 +7357,11 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7568,7 +7414,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7577,21 +7422,11 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7644,7 +7479,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7653,17 +7487,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7716,7 +7539,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7725,21 +7547,11 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7792,7 +7604,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7801,17 +7612,6 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7864,7 +7664,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7873,17 +7672,6 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7936,7 +7724,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7945,21 +7732,11 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8012,7 +7789,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8021,17 +7797,6 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8084,7 +7849,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8093,21 +7857,11 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
           <t>N.T. Sotelo Construction</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8160,7 +7914,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8169,21 +7922,11 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8236,7 +7979,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8245,21 +7987,11 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8312,7 +8044,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8321,21 +8052,11 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8388,7 +8109,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8397,21 +8117,11 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8464,7 +8174,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8473,21 +8182,11 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8540,7 +8239,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8549,21 +8247,11 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8616,7 +8304,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8625,21 +8312,11 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8692,7 +8369,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8701,21 +8377,11 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8768,7 +8434,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8777,21 +8442,11 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8844,7 +8499,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8853,21 +8507,11 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
           <t>Juncan Enterprises</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8920,7 +8564,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8929,17 +8572,6 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8992,7 +8624,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9001,17 +8632,6 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9064,7 +8684,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9073,17 +8692,6 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9136,7 +8744,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9145,17 +8752,6 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9208,7 +8804,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9217,17 +8812,6 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9280,7 +8864,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9289,17 +8872,6 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9352,7 +8924,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9361,17 +8932,6 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9424,7 +8984,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9433,17 +8992,6 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9496,7 +9044,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9505,17 +9052,6 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9568,7 +9104,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9577,17 +9112,6 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9640,7 +9164,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9649,17 +9172,6 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9712,7 +9224,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9721,17 +9232,6 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9784,7 +9284,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9793,17 +9292,6 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9856,7 +9344,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9865,17 +9352,6 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9928,7 +9404,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9937,17 +9412,6 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10000,7 +9464,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10009,17 +9472,6 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10072,7 +9524,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10081,17 +9532,6 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10144,7 +9584,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10153,17 +9592,6 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10216,7 +9644,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10225,17 +9652,6 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10288,7 +9704,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10297,17 +9712,6 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10360,7 +9764,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10369,17 +9772,6 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10432,7 +9824,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10441,17 +9832,6 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10504,7 +9884,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10518,22 +9897,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U106" s="2" t="n">
+      <c r="U106" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V106" s="2" t="n">
+      <c r="V106" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W106" s="2" t="n">
+      <c r="W106" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X106" s="2" t="n">
+      <c r="X106" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y106" t="inlineStr">
@@ -10598,7 +9974,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10612,22 +9987,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U107" s="2" t="n">
+      <c r="U107" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="W107" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X107" s="2" t="n">
+      <c r="X107" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y107" t="inlineStr">
@@ -10692,7 +10064,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10706,22 +10077,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" s="2" t="n">
+      <c r="T108" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U108" s="2" t="n">
+      <c r="U108" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V108" s="2" t="n">
+      <c r="V108" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W108" s="2" t="n">
+      <c r="W108" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X108" s="2" t="n">
+      <c r="X108" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y108" t="inlineStr">
@@ -10786,7 +10154,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10800,22 +10167,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" s="2" t="n">
+      <c r="T109" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U109" s="2" t="n">
+      <c r="U109" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V109" s="2" t="n">
+      <c r="V109" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W109" s="2" t="n">
+      <c r="W109" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X109" s="2" t="n">
+      <c r="X109" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y109" t="inlineStr">
@@ -10880,7 +10244,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10894,22 +10257,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" s="2" t="n">
+      <c r="T110" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U110" s="2" t="n">
+      <c r="U110" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V110" s="2" t="n">
+      <c r="V110" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W110" s="2" t="n">
+      <c r="W110" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X110" s="2" t="n">
+      <c r="X110" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y110" t="inlineStr">
@@ -10974,7 +10334,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10988,22 +10347,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="U111" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W111" s="2" t="n">
+      <c r="W111" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -11068,7 +10424,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11082,22 +10437,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" s="2" t="n">
+      <c r="T112" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="U112" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="V112" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W112" s="2" t="n">
+      <c r="W112" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -11162,7 +10514,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11176,22 +10527,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="U113" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="V113" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W113" s="2" t="n">
+      <c r="W113" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -11256,7 +10604,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11270,22 +10617,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" s="2" t="n">
+      <c r="T114" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="U114" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="V114" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W114" s="2" t="n">
+      <c r="W114" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -11350,7 +10694,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11364,22 +10707,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="U115" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="V115" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W115" s="2" t="n">
+      <c r="W115" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -11444,7 +10784,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11458,22 +10797,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="U116" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V116" s="2" t="n">
+      <c r="V116" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W116" s="2" t="n">
+      <c r="W116" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -11538,7 +10874,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11552,22 +10887,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="U117" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V117" s="2" t="n">
+      <c r="V117" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W117" s="2" t="n">
+      <c r="W117" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -11632,7 +10964,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11646,22 +10977,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" s="2" t="n">
+      <c r="T118" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U118" s="2" t="n">
+      <c r="U118" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V118" s="2" t="n">
+      <c r="V118" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W118" s="2" t="n">
+      <c r="W118" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X118" s="2" t="n">
+      <c r="X118" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y118" t="inlineStr">
@@ -11726,7 +11054,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11740,22 +11067,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" s="2" t="n">
+      <c r="T119" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U119" s="2" t="n">
+      <c r="U119" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V119" s="2" t="n">
+      <c r="V119" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W119" s="2" t="n">
+      <c r="W119" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X119" s="2" t="n">
+      <c r="X119" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y119" t="inlineStr">
@@ -11820,7 +11144,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11834,22 +11157,19 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" s="2" t="n">
+      <c r="T120" s="3" t="n">
         <v>44765</v>
       </c>
-      <c r="U120" s="2" t="n">
+      <c r="U120" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="V120" s="2" t="n">
+      <c r="V120" s="3" t="n">
         <v>44788</v>
       </c>
-      <c r="W120" s="2" t="n">
+      <c r="W120" s="3" t="n">
         <v>44840</v>
       </c>
-      <c r="X120" s="2" t="n">
+      <c r="X120" s="3" t="n">
         <v>44922</v>
       </c>
       <c r="Y120" t="inlineStr">
@@ -11914,7 +11234,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11928,15 +11247,6 @@
           <t>2/3/2023</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
           <t>Paid</t>
@@ -11994,7 +11304,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12003,17 +11312,6 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12066,7 +11364,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12075,17 +11372,6 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12138,7 +11424,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12147,17 +11432,6 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12210,7 +11484,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12219,17 +11492,6 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12282,7 +11544,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12291,17 +11552,6 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12354,7 +11604,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12363,17 +11612,6 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12426,7 +11664,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12435,17 +11672,6 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12498,7 +11724,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12507,17 +11732,6 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12570,7 +11784,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12579,17 +11792,6 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12642,7 +11844,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12651,17 +11852,6 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12714,7 +11904,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12723,17 +11912,6 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12786,7 +11964,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12795,17 +11972,6 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12858,7 +12024,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12867,17 +12032,6 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12930,7 +12084,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12939,17 +12092,6 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13002,7 +12144,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13011,17 +12152,6 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13074,7 +12204,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13083,17 +12212,6 @@
       <c r="O137" t="n">
         <v>1</v>
       </c>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13146,7 +12264,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13155,17 +12272,6 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13218,7 +12324,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13227,17 +12332,6 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13290,7 +12384,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13299,17 +12392,6 @@
       <c r="O140" t="n">
         <v>1</v>
       </c>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13362,7 +12444,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13371,17 +12452,6 @@
       <c r="O141" t="n">
         <v>1</v>
       </c>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13434,7 +12504,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13443,17 +12512,6 @@
       <c r="O142" t="n">
         <v>1</v>
       </c>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13506,7 +12564,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13515,17 +12572,6 @@
       <c r="O143" t="n">
         <v>1</v>
       </c>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13578,7 +12624,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13587,17 +12632,6 @@
       <c r="O144" t="n">
         <v>1</v>
       </c>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13650,7 +12684,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13659,17 +12692,6 @@
       <c r="O145" t="n">
         <v>1</v>
       </c>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13722,7 +12744,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13731,17 +12752,6 @@
       <c r="O146" t="n">
         <v>1</v>
       </c>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13794,7 +12804,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13803,17 +12812,6 @@
       <c r="O147" t="n">
         <v>1</v>
       </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13866,7 +12864,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13875,17 +12872,79 @@
       <c r="O148" t="n">
         <v>1</v>
       </c>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
-      <c r="Z148" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA148" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/Region IV-A/Region IV-A_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-A/Region IV-A_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA148"/>
+  <dimension ref="A1:AF148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Repair of Clinic</t>
@@ -625,11 +645,6 @@
       <c r="K2" t="n">
         <v>815466.71</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>813834.0699999999</v>
       </c>
@@ -724,11 +739,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Repair of Clinic</t>
@@ -737,11 +747,6 @@
       <c r="K3" t="n">
         <v>611000</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>603643.98</v>
       </c>
@@ -836,11 +841,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of Water System</t>
@@ -849,11 +849,6 @@
       <c r="K4" t="n">
         <v>2500000</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>2498521.95</v>
       </c>
@@ -948,11 +943,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve">Construction of Group Handwashing Facility </t>
@@ -961,11 +951,6 @@
       <c r="K5" t="n">
         <v>373029.78</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M5" t="n">
         <v>370000</v>
       </c>
@@ -1070,11 +1055,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t xml:space="preserve">Construction of Group Handwashing Facility </t>
@@ -1083,11 +1063,6 @@
       <c r="K6" t="n">
         <v>373029.78</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M6" t="n">
         <v>370000</v>
       </c>
@@ -1192,11 +1167,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">Construction of Group Handwashing Facility </t>
@@ -1205,11 +1175,6 @@
       <c r="K7" t="n">
         <v>359254.72</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>350000</v>
       </c>
@@ -1314,11 +1279,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t xml:space="preserve">Construction of Group Handwashing Facility </t>
@@ -1327,11 +1287,6 @@
       <c r="K8" t="n">
         <v>366446.94</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>350000</v>
       </c>
@@ -1436,11 +1391,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction of 4-Seater Toilet</t>
@@ -1449,11 +1399,6 @@
       <c r="K9" t="n">
         <v>1778541.58</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M9" t="n">
         <v>1771974.69</v>
       </c>
@@ -1548,11 +1493,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Secondary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -1561,11 +1501,6 @@
       <c r="K10" t="n">
         <v>1199236.08</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>1195104.07</v>
       </c>
@@ -1660,11 +1595,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -1673,11 +1603,6 @@
       <c r="K11" t="n">
         <v>1144861.02</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>1140823.76</v>
       </c>
@@ -1772,11 +1697,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Construction of 4-Seater Toilet</t>
@@ -1785,11 +1705,6 @@
       <c r="K12" t="n">
         <v>1778541.58</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M12" t="n">
         <v>1771974.69</v>
       </c>
@@ -1884,11 +1799,6 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -1897,11 +1807,6 @@
       <c r="K13" t="n">
         <v>1869086.95</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M13" t="n">
         <v>1862721.32</v>
       </c>
@@ -1996,11 +1901,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Secondary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -2009,11 +1909,6 @@
       <c r="K14" t="n">
         <v>1199236.08</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M14" t="n">
         <v>1195104.07</v>
       </c>
@@ -2108,11 +2003,6 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Construction of 4-Seater Toilet</t>
@@ -2121,11 +2011,6 @@
       <c r="K15" t="n">
         <v>1729344.95</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>1722983</v>
       </c>
@@ -2220,11 +2105,6 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -2233,11 +2113,6 @@
       <c r="K16" t="n">
         <v>1821589.36</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M16" t="n">
         <v>1815097.94</v>
       </c>
@@ -2332,11 +2207,6 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Secondary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -2345,11 +2215,6 @@
       <c r="K17" t="n">
         <v>1467459.85</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M17" t="n">
         <v>1462528.61</v>
       </c>
@@ -2444,11 +2309,6 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Construction of 4-Seater Toilet</t>
@@ -2457,11 +2317,6 @@
       <c r="K18" t="n">
         <v>1778541.58</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M18" t="n">
         <v>1771974.69</v>
       </c>
@@ -2556,11 +2411,6 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Secondary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -2569,11 +2419,6 @@
       <c r="K19" t="n">
         <v>2378202.03</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M19" t="n">
         <v>2369501.2</v>
       </c>
@@ -2668,11 +2513,6 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -2681,11 +2521,6 @@
       <c r="K20" t="n">
         <v>1144861.02</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M20" t="n">
         <v>1140823.76</v>
       </c>
@@ -2780,11 +2615,6 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>8 units of Group Handwashing Facility Option 1B</t>
@@ -2793,11 +2623,6 @@
       <c r="K21" t="n">
         <v>4864447.28</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M21" t="n">
         <v>4134506.33</v>
       </c>
@@ -2902,11 +2727,6 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -2915,11 +2735,6 @@
       <c r="K22" t="n">
         <v>555792.24</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M22" t="n">
         <v>547697.65</v>
       </c>
@@ -3012,11 +2827,6 @@
           <t>Lone</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Repair of Classroom to be Used/Converted to School Clinic</t>
@@ -3025,11 +2835,6 @@
       <c r="K23" t="n">
         <v>1071103.22</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M23" t="n">
         <v>930346.4399999999</v>
       </c>
@@ -3129,11 +2934,6 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Construction of Water and Sanitation Facilities</t>
@@ -3142,11 +2942,6 @@
       <c r="K24" t="n">
         <v>1115051.25</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M24" t="n">
         <v>957782.88</v>
       </c>
@@ -3251,11 +3046,6 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -3264,11 +3054,6 @@
       <c r="K25" t="n">
         <v>3612913.97</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M25" t="n">
         <v>3155056.04</v>
       </c>
@@ -3368,11 +3153,6 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Conversion of classroom to Health Center</t>
@@ -3381,11 +3161,6 @@
       <c r="K26" t="n">
         <v>936863.3100000001</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M26" t="n">
         <v>818653.12</v>
       </c>
@@ -3490,11 +3265,6 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>Construction of Hand Washing Facilities</t>
@@ -3503,11 +3273,6 @@
       <c r="K27" t="n">
         <v>208229.39</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M27" t="n">
         <v>208055</v>
       </c>
@@ -3609,11 +3374,6 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>Construction of Hand Washing Facilities</t>
@@ -3622,11 +3382,6 @@
       <c r="K28" t="n">
         <v>208229.39</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M28" t="n">
         <v>208055</v>
       </c>
@@ -3728,11 +3483,6 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Construction of Hand Washing Facilities</t>
@@ -3741,11 +3491,6 @@
       <c r="K29" t="n">
         <v>208229.39</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M29" t="n">
         <v>208055</v>
       </c>
@@ -3847,11 +3592,6 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>Construction of Hand Washing Facilities</t>
@@ -3860,11 +3600,6 @@
       <c r="K30" t="n">
         <v>208229.39</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M30" t="n">
         <v>208055</v>
       </c>
@@ -3966,11 +3701,6 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>Construction of Hand Washing Facilities</t>
@@ -3979,11 +3709,6 @@
       <c r="K31" t="n">
         <v>208229.39</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M31" t="n">
         <v>208055</v>
       </c>
@@ -4085,11 +3810,6 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>Construction of Hand Washing Facilities</t>
@@ -4098,11 +3818,6 @@
       <c r="K32" t="n">
         <v>208229.39</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M32" t="n">
         <v>208055</v>
       </c>
@@ -4204,11 +3919,6 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -4217,11 +3927,6 @@
       <c r="K33" t="n">
         <v>5252051.98</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M33" t="n">
         <v>108556</v>
       </c>
@@ -4316,11 +4021,6 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -4329,11 +4029,6 @@
       <c r="K34" t="n">
         <v>4675089.04</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M34" t="n">
         <v>4200000</v>
       </c>
@@ -4428,11 +4123,6 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -4441,11 +4131,6 @@
       <c r="K35" t="n">
         <v>4704018.14</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M35" t="n">
         <v>3737566.6</v>
       </c>
@@ -4540,11 +4225,6 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -4553,11 +4233,6 @@
       <c r="K36" t="n">
         <v>4758321.11</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M36" t="n">
         <v>4747000</v>
       </c>
@@ -4652,11 +4327,6 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -4665,11 +4335,6 @@
       <c r="K37" t="n">
         <v>322353.43</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M37" t="n">
         <v>293502.72</v>
       </c>
@@ -4769,11 +4434,6 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -4782,11 +4442,6 @@
       <c r="K38" t="n">
         <v>320411.31</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M38" t="n">
         <v>293502.72</v>
       </c>
@@ -4886,11 +4541,6 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -4899,11 +4549,6 @@
       <c r="K39" t="n">
         <v>320411.31</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M39" t="n">
         <v>5230782.45</v>
       </c>
@@ -4998,11 +4643,6 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -5011,11 +4651,6 @@
       <c r="K40" t="n">
         <v>320411.31</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M40" t="n">
         <v>4200000</v>
       </c>
@@ -5110,11 +4745,6 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -5123,11 +4753,6 @@
       <c r="K41" t="n">
         <v>322353.43</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M41" t="n">
         <v>3737566.6</v>
       </c>
@@ -5222,11 +4847,6 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facilities</t>
@@ -5235,11 +4855,6 @@
       <c r="K42" t="n">
         <v>320411.31</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M42" t="n">
         <v>4747000</v>
       </c>
@@ -5334,11 +4949,6 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Construction of 3 Units Group Handwashing Facility - For Elementary (Option 3A - One-Sided, with Roofing, with Counter, with Tile Finish)</t>
@@ -5347,11 +4957,6 @@
       <c r="K43" t="n">
         <v>360000</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M43" t="n">
         <v>339381.46</v>
       </c>
@@ -5451,11 +5056,6 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -5464,11 +5064,6 @@
       <c r="K44" t="n">
         <v>2500000</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M44" t="n">
         <v>2350669.64</v>
       </c>
@@ -5568,11 +5163,6 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -5581,11 +5171,6 @@
       <c r="K45" t="n">
         <v>4680001.53</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M45" t="n">
         <v>3483584.6</v>
       </c>
@@ -5685,11 +5270,6 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>Construction of Water System (Deep Well Design with Solar - Powered Submersible Water Pump)</t>
@@ -5698,11 +5278,6 @@
       <c r="K46" t="n">
         <v>2427369</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M46" t="n">
         <v>2240000</v>
       </c>
@@ -5804,11 +5379,6 @@
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>Construction of Water and Sanitation Facilities - Four (4) Seater</t>
@@ -5817,11 +5387,6 @@
       <c r="K47" t="n">
         <v>754000</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M47" t="n">
         <v>753000</v>
       </c>
@@ -5926,11 +5491,6 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>Construction of Group Hand Washing Facilities</t>
@@ -5939,11 +5499,6 @@
       <c r="K48" t="n">
         <v>268500</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M48" t="n">
         <v>267000</v>
       </c>
@@ -12875,7 +12430,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA148" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF148" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region IV-A/Region IV-A_HEALTH.xlsx
+++ b/Filtered_By_Region/Region IV-A/Region IV-A_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
